--- a/data_curation/dataset_imputed.xlsx
+++ b/data_curation/dataset_imputed.xlsx
@@ -793,7 +793,7 @@
         <v>236</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>-1</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8.444897959183672</v>
+        <v>8.481999999999998</v>
       </c>
       <c r="E33" t="n">
         <v>56</v>
@@ -3123,7 +3123,7 @@
         <v>14.58103448275862</v>
       </c>
       <c r="E84" t="n">
-        <v>82.56874999999999</v>
+        <v>82.56875000000001</v>
       </c>
       <c r="F84" t="n">
         <v>12.58139534883721</v>
@@ -3955,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="E110" t="n">
-        <v>78.75</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="F110" t="n">
         <v>79</v>
@@ -4371,7 +4371,7 @@
         <v>11.5</v>
       </c>
       <c r="E123" t="n">
-        <v>65.17142857142858</v>
+        <v>65.17142857142856</v>
       </c>
       <c r="F123" t="n">
         <v>6.9</v>
@@ -4729,7 +4729,7 @@
         <v>81</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>9.1</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>10.95217391304348</v>
+        <v>11.87560975609756</v>
       </c>
       <c r="E144" t="n">
         <v>68.90000000000001</v>
@@ -5395,7 +5395,7 @@
         <v>11.9</v>
       </c>
       <c r="E155" t="n">
-        <v>65.17142857142858</v>
+        <v>65.17142857142856</v>
       </c>
       <c r="F155" t="n">
         <v>2</v>
@@ -5747,7 +5747,7 @@
         <v>4.4</v>
       </c>
       <c r="E166" t="n">
-        <v>73.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F166" t="n">
         <v>4</v>
@@ -6355,7 +6355,7 @@
         <v>14.58103448275862</v>
       </c>
       <c r="E185" t="n">
-        <v>82.56874999999999</v>
+        <v>82.56875000000001</v>
       </c>
       <c r="F185" t="n">
         <v>30.75</v>
@@ -6451,7 +6451,7 @@
         <v>10.5</v>
       </c>
       <c r="E188" t="n">
-        <v>65.17142857142858</v>
+        <v>65.17142857142856</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7129,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>-1</v>
@@ -7315,7 +7315,7 @@
         <v>11.3</v>
       </c>
       <c r="E215" t="n">
-        <v>65.17142857142858</v>
+        <v>65.17142857142856</v>
       </c>
       <c r="F215" t="n">
         <v>1</v>
@@ -7603,7 +7603,7 @@
         <v>11.3</v>
       </c>
       <c r="E224" t="n">
-        <v>65.17142857142858</v>
+        <v>65.17142857142856</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>57</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>-1</v>
@@ -7737,7 +7737,7 @@
         <v>234</v>
       </c>
       <c r="G228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>-1</v>
@@ -8310,7 +8310,7 @@
         <v>64.74347826086957</v>
       </c>
       <c r="F246" t="n">
-        <v>65.07142857142857</v>
+        <v>123.75</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9715,7 +9715,7 @@
         <v>10.3</v>
       </c>
       <c r="E290" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F290" t="n">
         <v>1</v>
